--- a/biology/Botanique/Securidaca_pubescens/Securidaca_pubescens.xlsx
+++ b/biology/Botanique/Securidaca_pubescens/Securidaca_pubescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Securidaca pubescens est une espèce de plantes à fleurs de la famille des Polygalaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Securidaca pubescens est une liane ligneuse, ou un petit arbre. Ses tiges mesurent 3-5 mm de diamètre et sont densément pubescentes avec de courts poils souples. Les stipules sont réduits à 2 glandes circulaires. Les feuilles, comportent un pétiole densément pubescent long de 5 à 8 mm, un limbe ovale à largement ovale, rarement elliptiques, mesurant 3-8,5 x 22-5,5 cm, vert grisâtre brillant adaxialement, peu pubescents sur la nervure médiane adaxiale, densément pubescent abaxialement, la base aiguë à obtuse, l'apex aigu à acuminé. Les 4-5 paires de nervures secondaires sont brochidodrome. Les inflorescences portent de nombreuses fleurs parfumées, longues de 10-11 mm. Elles portent 3 sépales extérieurs, verts à violet foncé, des ailes violet foncé lorsqu'elles sont jeunes, brillantes à violet clair lorsqu'elles sont âgées et des pétales violet clair ou rose, et une la carène crêtée[2]. Les fruits ailés sont des samares.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Securidaca pubescens est une liane ligneuse, ou un petit arbre. Ses tiges mesurent 3-5 mm de diamètre et sont densément pubescentes avec de courts poils souples. Les stipules sont réduits à 2 glandes circulaires. Les feuilles, comportent un pétiole densément pubescent long de 5 à 8 mm, un limbe ovale à largement ovale, rarement elliptiques, mesurant 3-8,5 x 22-5,5 cm, vert grisâtre brillant adaxialement, peu pubescents sur la nervure médiane adaxiale, densément pubescent abaxialement, la base aiguë à obtuse, l'apex aigu à acuminé. Les 4-5 paires de nervures secondaires sont brochidodrome. Les inflorescences portent de nombreuses fleurs parfumées, longues de 10-11 mm. Elles portent 3 sépales extérieurs, verts à violet foncé, des ailes violet foncé lorsqu'elles sont jeunes, brillantes à violet clair lorsqu'elles sont âgées et des pétales violet clair ou rose, et une la carène crêtée. Les fruits ailés sont des samares.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre Securidaca pubescens dans le nord de l'Amérique du Sud : Colombie, Pérou, Venezuela, Guyana, Suriname, Guyane, Brésil.
 </t>
@@ -573,9 +589,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Securidaca pubescens est fertile au mois d'août en Guyane[2]. Ses fruits sont anémochores.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Securidaca pubescens est fertile au mois d'août en Guyane. Ses fruits sont anémochores.
 </t>
         </is>
       </c>
